--- a/data/trans_dic/P79$hipoteca_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P79$hipoteca_2023-Estudios-trans_dic.xlsx
@@ -584,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0007889011291281396</v>
+        <v>0.0007819672496468473</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0005152169937955536</v>
+        <v>0.0005115889884390846</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.00818382198212167</v>
+        <v>0.01029282507006827</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.006680062063237765</v>
+        <v>0.00660125216103814</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.005527757735570077</v>
+        <v>0.005615404804986908</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007753766252119691</v>
+        <v>0.008072923821233143</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.005841480493766853</v>
+        <v>0.005618461788717074</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.007848745934631611</v>
+        <v>0.00784341034152404</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01759022574329764</v>
+        <v>0.01895607291119545</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01300257944880939</v>
+        <v>0.01328384686335406</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01441257257881595</v>
+        <v>0.01420437442732781</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.01131770757641736</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.006680774432657116</v>
+        <v>0.006680774432657115</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.008979530098535155</v>
+        <v>0.008979530098535157</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004837305489302112</v>
+        <v>0.004773215812681603</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.00264352429829219</v>
+        <v>0.002461634753804307</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.005013574835368921</v>
+        <v>0.00508979084133033</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02251491378675748</v>
+        <v>0.02266709371043989</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01382735131264556</v>
+        <v>0.01514662523357244</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01465292046168183</v>
+        <v>0.0157736473214723</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.01018107241961567</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.007099769950453301</v>
+        <v>0.007099769950453302</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.008601009023487829</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007109783442359757</v>
+        <v>0.006998004643966462</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.005106003472479859</v>
+        <v>0.004995520016494833</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.006682206717031449</v>
+        <v>0.00677216683485924</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01447291799355634</v>
+        <v>0.01414070441481982</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.009800794522462479</v>
+        <v>0.00990141557505554</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0110870946454458</v>
+        <v>0.01109448723941054</v>
       </c>
     </row>
     <row r="16">
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4507</v>
+        <v>5668</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5211</v>
+        <v>5150</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7356</v>
+        <v>7473</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16725</v>
+        <v>17413</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12236</v>
+        <v>11769</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>33371</v>
+        <v>33348</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>37942</v>
+        <v>40888</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>27237</v>
+        <v>27826</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>61278</v>
+        <v>60393</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3409</v>
+        <v>3363</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1895</v>
+        <v>1764</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7126</v>
+        <v>7235</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15865</v>
+        <v>15972</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9911</v>
+        <v>10856</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20827</v>
+        <v>22420</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>24261</v>
+        <v>23880</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>18338</v>
+        <v>17942</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>46802</v>
+        <v>47432</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>49387</v>
+        <v>48253</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>35200</v>
+        <v>35561</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>77653</v>
+        <v>77705</v>
       </c>
     </row>
     <row r="20">
